--- a/example/template.xlsx
+++ b/example/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woojungkim/Projects/excel-mapper/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/w3kim/Projects/excel-mapper/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616ED1D8-E4E6-3942-ACE0-D5D2C350D07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C84822-0FDF-F849-8251-5945D19CFA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3020" windowWidth="27640" windowHeight="16940" xr2:uid="{5A2F5DC7-86B9-1B42-9788-2D9F699F6426}"/>
   </bookViews>
@@ -513,14 +513,18 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -534,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -548,10 +552,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -559,7 +563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
